--- a/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5D764C-CFC1-4012-A42D-1B6EBF3DB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEAB37A-BE45-4A34-86C2-3631A4CAD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB18E70B-4CE6-4072-9B83-1465C9C9C870}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE689514-BB04-4064-ABC1-2450A89F1034}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="468">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="464">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1372 +77,1360 @@
     <t>1,65%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>84,66%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,25%</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548686AC-663B-4160-8DAD-21287DD2DAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0993589A-186B-4F46-92A0-113893917B91}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,7 +2464,7 @@
         <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>70</v>
@@ -2530,7 +2518,7 @@
         <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2589,10 @@
         <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2613,13 +2601,13 @@
         <v>3263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2628,13 +2616,13 @@
         <v>5904</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2637,13 @@
         <v>200667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -2664,13 +2652,13 @@
         <v>204405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2679,13 +2667,13 @@
         <v>405072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2729,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2741,13 @@
         <v>975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2771,10 +2759,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2783,13 +2771,13 @@
         <v>975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2792,10 @@
         <v>269836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2822,7 +2810,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2834,10 +2822,10 @@
         <v>547980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -2896,7 +2884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2908,13 +2896,13 @@
         <v>4612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2923,13 +2911,13 @@
         <v>4760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2938,13 +2926,13 @@
         <v>9372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2947,13 @@
         <v>610415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>616</v>
@@ -2974,13 +2962,13 @@
         <v>633459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1209</v>
@@ -2989,13 +2977,13 @@
         <v>1243874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3066,13 @@
         <v>9086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3093,10 +3081,10 @@
         <v>16904</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>128</v>
@@ -3129,13 +3117,13 @@
         <v>774425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>1466</v>
@@ -3144,13 +3132,13 @@
         <v>1510402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>37457</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -3248,13 +3236,13 @@
         <v>67198</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,16 +3254,16 @@
         <v>3186</v>
       </c>
       <c r="D29" s="7">
-        <v>3246802</v>
+        <v>3246803</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3260</v>
@@ -3284,28 +3272,28 @@
         <v>3341741</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>6446</v>
       </c>
       <c r="N29" s="7">
-        <v>6588543</v>
+        <v>6588542</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3305,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3335,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3361,7 +3349,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137800E5-7268-4BBF-9E09-07A09E88EF53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADFD56-FF8B-47AB-B5A5-03AA56527408}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3402,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3507,39 +3495,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,39 +3540,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,39 +3585,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3634,13 @@
         <v>6234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3661,13 +3649,13 @@
         <v>7193</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3679,10 +3667,10 @@
         <v>79</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3685,13 @@
         <v>499293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -3712,13 +3700,13 @@
         <v>516572</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -3727,13 +3715,13 @@
         <v>1015865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3789,13 @@
         <v>9098</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3816,13 +3804,13 @@
         <v>6923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3831,13 +3819,13 @@
         <v>16021</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3840,13 @@
         <v>314948</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -3867,13 +3855,13 @@
         <v>334097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -3882,13 +3870,13 @@
         <v>649045</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3944,13 @@
         <v>17291</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3971,13 +3959,13 @@
         <v>21199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3986,13 +3974,13 @@
         <v>38490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3995,13 @@
         <v>651429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>607</v>
@@ -4022,13 +4010,13 @@
         <v>654997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1218</v>
@@ -4037,13 +4025,13 @@
         <v>1306426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4099,13 @@
         <v>7501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4126,13 +4114,13 @@
         <v>7419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4141,13 +4129,13 @@
         <v>14920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4150,13 @@
         <v>205117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -4177,13 +4165,13 @@
         <v>212172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -4192,13 +4180,13 @@
         <v>417289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4242,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4266,13 +4254,13 @@
         <v>5011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4281,13 +4269,13 @@
         <v>7116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4296,13 +4284,13 @@
         <v>12128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4305,13 @@
         <v>268970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4332,13 +4320,13 @@
         <v>272915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4347,13 +4335,13 @@
         <v>541884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4397,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4421,13 +4409,13 @@
         <v>11260</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4436,13 +4424,13 @@
         <v>9265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4451,13 +4439,13 @@
         <v>20526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4460,13 @@
         <v>651528</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -4487,13 +4475,13 @@
         <v>684588</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>1234</v>
@@ -4502,13 +4490,13 @@
         <v>1336115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,10 +4567,10 @@
         <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4591,13 +4579,13 @@
         <v>15099</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -4606,13 +4594,13 @@
         <v>22215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4615,13 @@
         <v>771982</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -4642,13 +4630,13 @@
         <v>808754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>1455</v>
@@ -4657,13 +4645,13 @@
         <v>1580736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4719,13 @@
         <v>63511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -4746,13 +4734,13 @@
         <v>74215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="M28" s="7">
         <v>124</v>
@@ -4761,13 +4749,13 @@
         <v>137726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4770,13 @@
         <v>3363268</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>3229</v>
@@ -4797,10 +4785,10 @@
         <v>3484094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>21</v>
@@ -4812,13 +4800,13 @@
         <v>6847362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4862,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB5F674-72DF-4943-AAF2-D73BD0370A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A83F5-3467-4995-B1F5-7EDCFA7D4D5B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,7 +4903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5022,13 +5010,13 @@
         <v>7112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5037,13 +5025,13 @@
         <v>5908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5052,13 +5040,13 @@
         <v>13020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5061,13 @@
         <v>286649</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>272</v>
@@ -5088,13 +5076,13 @@
         <v>282795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -5103,13 +5091,13 @@
         <v>569444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5165,13 @@
         <v>1132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5192,13 +5180,13 @@
         <v>5050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5207,13 +5195,13 @@
         <v>6182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,10 +5216,10 @@
         <v>501443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5243,13 +5231,13 @@
         <v>518034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -5258,13 +5246,13 @@
         <v>1019477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -5347,13 +5335,13 @@
         <v>3188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5362,13 +5350,13 @@
         <v>3188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5386,13 @@
         <v>333121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
         <v>664</v>
@@ -5413,13 +5401,13 @@
         <v>651686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5475,13 @@
         <v>10204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5502,13 +5490,13 @@
         <v>16841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5517,13 +5505,13 @@
         <v>27044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5526,13 @@
         <v>359760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5553,13 +5541,13 @@
         <v>370442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>687</v>
@@ -5568,13 +5556,13 @@
         <v>730203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5630,13 @@
         <v>1908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5657,13 +5645,13 @@
         <v>4086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5672,13 +5660,13 @@
         <v>5994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,10 +5681,10 @@
         <v>209313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5708,13 +5696,13 @@
         <v>214501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5723,13 +5711,13 @@
         <v>423814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,7 +5773,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5797,13 +5785,13 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5812,13 +5800,13 @@
         <v>3197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5827,13 +5815,13 @@
         <v>4171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,10 +5836,10 @@
         <v>262149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5863,13 +5851,13 @@
         <v>269918</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -5878,13 +5866,13 @@
         <v>532067</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +5928,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5952,13 +5940,13 @@
         <v>3332</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5967,13 +5955,13 @@
         <v>6184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -5982,13 +5970,13 @@
         <v>9516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5991,13 @@
         <v>653226</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>640</v>
@@ -6018,13 +6006,13 @@
         <v>685110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -6033,13 +6021,13 @@
         <v>1338336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6095,13 @@
         <v>7239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6122,13 +6110,13 @@
         <v>11934</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6137,13 +6125,13 @@
         <v>19173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6146,13 @@
         <v>771344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -6173,13 +6161,13 @@
         <v>814233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>1488</v>
@@ -6188,13 +6176,13 @@
         <v>1585577</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6250,13 @@
         <v>31901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -6277,13 +6265,13 @@
         <v>56387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="M28" s="7">
         <v>81</v>
@@ -6292,13 +6280,13 @@
         <v>88288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6301,13 @@
         <v>3362449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>3287</v>
@@ -6328,13 +6316,13 @@
         <v>3488155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>6488</v>
@@ -6343,13 +6331,13 @@
         <v>6850604</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6393,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F34038-A664-4924-904D-BA92ECB664DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228B05F9-B056-453D-9B5E-65DA5A3011D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6446,7 +6434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6553,13 +6541,13 @@
         <v>2995</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>364</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6568,13 +6556,13 @@
         <v>7185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6583,13 +6571,13 @@
         <v>10180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6592,13 @@
         <v>257303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>529</v>
@@ -6619,13 +6607,13 @@
         <v>264218</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
@@ -6634,13 +6622,13 @@
         <v>521520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6696,13 @@
         <v>14341</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6723,13 +6711,13 @@
         <v>17656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -6738,13 +6726,13 @@
         <v>31998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6747,13 @@
         <v>504956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>694</v>
@@ -6774,13 +6762,13 @@
         <v>536910</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>1065</v>
@@ -6789,13 +6777,13 @@
         <v>1041866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6851,13 @@
         <v>6749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -6878,13 +6866,13 @@
         <v>8527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6893,13 +6881,13 @@
         <v>15276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6902,13 @@
         <v>315491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
@@ -6929,13 +6917,13 @@
         <v>364757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
@@ -6944,13 +6932,13 @@
         <v>680248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7006,13 @@
         <v>741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -7033,13 +7021,13 @@
         <v>6960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -7048,13 +7036,13 @@
         <v>7701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,10 +7057,10 @@
         <v>321499</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7084,13 +7072,13 @@
         <v>421596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>876</v>
@@ -7099,13 +7087,13 @@
         <v>743095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7161,13 @@
         <v>1499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7188,13 +7176,13 @@
         <v>639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7203,13 +7191,13 @@
         <v>2137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,10 +7212,10 @@
         <v>195249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7239,10 +7227,10 @@
         <v>258874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7254,13 +7242,13 @@
         <v>454123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,7 +7304,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7328,13 +7316,13 @@
         <v>10535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7343,13 +7331,13 @@
         <v>10133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -7358,13 +7346,13 @@
         <v>20668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7367,13 @@
         <v>266688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -7394,13 +7382,13 @@
         <v>265489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>796</v>
@@ -7409,13 +7397,13 @@
         <v>532177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,7 +7459,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7483,13 +7471,13 @@
         <v>24533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -7498,13 +7486,13 @@
         <v>151346</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -7513,13 +7501,13 @@
         <v>175878</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7522,13 @@
         <v>603221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>901</v>
@@ -7549,13 +7537,13 @@
         <v>652857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>1477</v>
@@ -7564,13 +7552,13 @@
         <v>1256079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7626,13 @@
         <v>16286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -7653,13 +7641,13 @@
         <v>17494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7668,13 +7656,13 @@
         <v>33780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7677,13 @@
         <v>843142</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>1040</v>
@@ -7704,13 +7692,13 @@
         <v>850940</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>213</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1785</v>
@@ -7719,13 +7707,13 @@
         <v>1694082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7781,13 @@
         <v>77678</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -7808,13 +7796,13 @@
         <v>219940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>245</v>
@@ -7823,13 +7811,13 @@
         <v>297618</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7832,13 @@
         <v>3307550</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>5205</v>
@@ -7859,28 +7847,28 @@
         <v>3615641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>8498</v>
       </c>
       <c r="N29" s="7">
-        <v>6923190</v>
+        <v>6923191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>429</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7910,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -7936,7 +7924,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEAB37A-BE45-4A34-86C2-3631A4CAD5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C48DD25-8E43-4E13-9033-AD695CE6E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE689514-BB04-4064-ABC1-2450A89F1034}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A48F6964-3880-47F0-9566-02B89C825989}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="467">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -83,1354 +83,1363 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0993589A-186B-4F46-92A0-113893917B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC6E7DF-569D-4B85-82E8-D3B54E0363B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1975,10 +1984,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1065</v>
+        <v>2131</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1990,10 +1999,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>5577</v>
+        <v>6642</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2026,10 +2035,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I5" s="7">
-        <v>259773</v>
+        <v>258707</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2041,10 +2050,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N5" s="7">
-        <v>528271</v>
+        <v>527206</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2440,34 +2449,34 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2006</v>
+        <v>2960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>6311</v>
+        <v>7264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,43 +2491,43 @@
         <v>354367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" s="7">
-        <v>369450</v>
+        <v>368496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N14" s="7">
-        <v>723816</v>
+        <v>722863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2583,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2595,13 @@
         <v>2641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2601,13 +2610,13 @@
         <v>3263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2616,13 +2625,13 @@
         <v>5904</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2646,13 @@
         <v>200667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -2652,13 +2661,13 @@
         <v>204405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2667,13 +2676,13 @@
         <v>405072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2738,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2741,13 +2750,13 @@
         <v>975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2759,10 +2768,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2771,7 +2780,7 @@
         <v>975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
@@ -2792,10 +2801,10 @@
         <v>269836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2810,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2822,7 +2831,7 @@
         <v>547980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>47</v>
@@ -2884,7 +2893,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2896,13 +2905,13 @@
         <v>4612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2911,13 +2920,13 @@
         <v>4760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2926,13 +2935,13 @@
         <v>9372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2956,13 @@
         <v>610415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>616</v>
@@ -2962,13 +2971,13 @@
         <v>633459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>1209</v>
@@ -2977,10 +2986,10 @@
         <v>1243874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>23</v>
@@ -3039,7 +3048,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3051,13 +3060,13 @@
         <v>7818</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3066,13 +3075,13 @@
         <v>9086</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3081,13 +3090,13 @@
         <v>16904</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3111,13 @@
         <v>735977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>737</v>
@@ -3117,13 +3126,13 @@
         <v>774425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>1466</v>
@@ -3132,10 +3141,10 @@
         <v>1510402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>60</v>
@@ -3206,43 +3215,43 @@
         <v>29741</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7">
-        <v>37457</v>
+        <v>39476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M28" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N28" s="7">
-        <v>67198</v>
+        <v>69216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,46 +3263,46 @@
         <v>3186</v>
       </c>
       <c r="D29" s="7">
-        <v>3246803</v>
+        <v>3246802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="I29" s="7">
-        <v>3341741</v>
+        <v>3339721</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
-        <v>6446</v>
+        <v>6444</v>
       </c>
       <c r="N29" s="7">
-        <v>6588542</v>
+        <v>6586525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3314,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3320,7 +3329,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3335,7 +3344,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3349,7 +3358,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADFD56-FF8B-47AB-B5A5-03AA56527408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378E68EC-EDBF-4414-980F-89BA83B7AA23}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3390,7 +3399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3491,43 +3500,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13037</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9560</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>22597</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,43 +3551,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="D5" s="7">
+        <v>281701</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I5" s="7">
+        <v>277685</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="N5" s="7">
+        <v>559386</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,43 +3602,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3661,13 @@
         <v>6234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3649,13 +3676,13 @@
         <v>7193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3664,13 +3691,13 @@
         <v>13427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3712,13 @@
         <v>499293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -3700,13 +3727,13 @@
         <v>516572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -3715,13 +3742,13 @@
         <v>1015865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3816,13 @@
         <v>9098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3804,13 +3831,13 @@
         <v>6923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3819,13 +3846,13 @@
         <v>16021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3867,13 @@
         <v>314948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -3855,13 +3882,13 @@
         <v>334097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -3870,13 +3897,13 @@
         <v>649045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,49 +3965,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>17291</v>
+        <v>4254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>21199</v>
+        <v>11639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>38490</v>
+        <v>15893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,49 +4016,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>611</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>651429</v>
+        <v>369728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
-        <v>607</v>
+        <v>359</v>
       </c>
       <c r="I14" s="7">
-        <v>654997</v>
+        <v>377312</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>1218</v>
+        <v>699</v>
       </c>
       <c r="N14" s="7">
-        <v>1306426</v>
+        <v>747040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,10 +4067,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4055,10 +4082,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4070,10 +4097,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4087,7 +4114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4099,13 +4126,13 @@
         <v>7501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4114,13 +4141,13 @@
         <v>7419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4129,13 +4156,13 @@
         <v>14920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4177,13 @@
         <v>205117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -4165,13 +4192,13 @@
         <v>212172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -4180,13 +4207,13 @@
         <v>417289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4254,13 +4281,13 @@
         <v>5011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4269,13 +4296,13 @@
         <v>7116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4284,13 +4311,13 @@
         <v>12128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4332,13 @@
         <v>268970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -4320,13 +4347,13 @@
         <v>272915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -4335,13 +4362,13 @@
         <v>541884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4424,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4412,10 +4439,10 @@
         <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4424,13 +4451,13 @@
         <v>9265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4439,13 +4466,13 @@
         <v>20526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +4490,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -4475,13 +4502,13 @@
         <v>684588</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>1234</v>
@@ -4490,13 +4517,13 @@
         <v>1336115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4591,13 @@
         <v>7116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4579,13 +4606,13 @@
         <v>15099</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -4594,13 +4621,13 @@
         <v>22215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,10 +4642,10 @@
         <v>771982</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -4630,13 +4657,13 @@
         <v>808754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>1455</v>
@@ -4645,13 +4672,13 @@
         <v>1580736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4746,13 @@
         <v>63511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -4734,13 +4761,13 @@
         <v>74215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
         <v>124</v>
@@ -4749,13 +4776,13 @@
         <v>137726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4797,13 @@
         <v>3363268</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3229</v>
@@ -4785,10 +4812,10 @@
         <v>3484094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>21</v>
@@ -4800,10 +4827,10 @@
         <v>6847362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>21</v>
@@ -4862,7 +4889,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A83F5-3467-4995-B1F5-7EDCFA7D4D5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C577FED-0214-4D41-9221-3A988B883BFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4903,7 +4930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5010,13 +5037,13 @@
         <v>7112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5025,13 +5052,13 @@
         <v>5908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5040,13 +5067,13 @@
         <v>13020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5088,13 @@
         <v>286649</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>272</v>
@@ -5076,13 +5103,13 @@
         <v>282795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -5091,13 +5118,13 @@
         <v>569444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5192,13 @@
         <v>1132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5180,13 +5207,13 @@
         <v>5050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5195,13 +5222,13 @@
         <v>6182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,10 +5243,10 @@
         <v>501443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5231,13 +5258,13 @@
         <v>518034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -5246,13 +5273,13 @@
         <v>1019477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,40 +5350,40 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>3188</v>
+        <v>4089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>3188</v>
+        <v>4089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,34 +5407,34 @@
         <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>333121</v>
+        <v>332220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N11" s="7">
-        <v>651686</v>
+        <v>650785</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,10 +5505,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5490,13 +5517,13 @@
         <v>16841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5505,13 +5532,13 @@
         <v>27044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,10 +5556,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -5541,13 +5568,13 @@
         <v>370442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>687</v>
@@ -5556,13 +5583,13 @@
         <v>730203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,7 +5645,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5630,13 +5657,13 @@
         <v>1908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5645,13 +5672,13 @@
         <v>4086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5660,13 +5687,13 @@
         <v>5994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,10 +5708,10 @@
         <v>209313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -5696,13 +5723,13 @@
         <v>214501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5711,13 +5738,13 @@
         <v>423814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5800,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5791,7 +5818,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5800,13 +5827,13 @@
         <v>3197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5815,13 +5842,13 @@
         <v>4171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5866,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5851,13 +5878,13 @@
         <v>269918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -5866,13 +5893,13 @@
         <v>532067</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,7 +5955,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5940,13 +5967,13 @@
         <v>3332</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5955,13 +5982,13 @@
         <v>6184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -5970,13 +5997,13 @@
         <v>9516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,10 +6018,10 @@
         <v>653226</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>62</v>
@@ -6006,13 +6033,13 @@
         <v>685110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>1217</v>
@@ -6021,13 +6048,13 @@
         <v>1338336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,7 +6110,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6095,13 +6122,13 @@
         <v>7239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6110,13 +6137,13 @@
         <v>11934</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6125,13 +6152,13 @@
         <v>19173</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6173,13 @@
         <v>771344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -6161,13 +6188,13 @@
         <v>814233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>1488</v>
@@ -6176,13 +6203,13 @@
         <v>1585577</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,43 +6277,43 @@
         <v>31901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" s="7">
-        <v>56387</v>
+        <v>57288</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="M28" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N28" s="7">
-        <v>88288</v>
+        <v>89190</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,43 +6328,43 @@
         <v>3362449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H29" s="7">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="I29" s="7">
-        <v>3488155</v>
+        <v>3487254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M29" s="7">
-        <v>6488</v>
+        <v>6487</v>
       </c>
       <c r="N29" s="7">
-        <v>6850604</v>
+        <v>6849702</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6420,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6417,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228B05F9-B056-453D-9B5E-65DA5A3011D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A5312E-ACA4-488F-8FA2-B3F091A4B615}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6434,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6538,46 +6565,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2995</v>
+        <v>3449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>375</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>7185</v>
+        <v>8275</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>10180</v>
+        <v>11724</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,46 +6616,46 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>257303</v>
+        <v>307994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>529</v>
       </c>
       <c r="I5" s="7">
-        <v>264218</v>
+        <v>281360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
       </c>
       <c r="N5" s="7">
-        <v>521520</v>
+        <v>589353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,7 +6667,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6655,7 +6682,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6670,7 +6697,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6693,46 +6720,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>14341</v>
+        <v>13946</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>17656</v>
+        <v>15549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>31998</v>
+        <v>29495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,46 +6771,46 @@
         <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>504956</v>
+        <v>504444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>536910</v>
+        <v>499420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N8" s="7">
-        <v>1041866</v>
+        <v>1003864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,7 +6822,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6810,7 +6837,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6825,7 +6852,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6848,46 +6875,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6749</v>
+        <v>6499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>8527</v>
+        <v>7834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>15276</v>
+        <v>14333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,46 +6926,46 @@
         <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>315491</v>
+        <v>309551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>523</v>
       </c>
       <c r="I11" s="7">
-        <v>364757</v>
+        <v>341294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>874</v>
       </c>
       <c r="N11" s="7">
-        <v>680248</v>
+        <v>650845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6977,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6965,7 +6992,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6980,7 +7007,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7003,46 +7030,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>6960</v>
+        <v>6530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>7701</v>
+        <v>7245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7081,13 @@
         <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>321499</v>
+        <v>311842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7069,31 +7096,31 @@
         <v>586</v>
       </c>
       <c r="I14" s="7">
-        <v>421596</v>
+        <v>469188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>876</v>
       </c>
       <c r="N14" s="7">
-        <v>743095</v>
+        <v>781029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7132,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7120,7 +7147,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7135,7 +7162,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7149,7 +7176,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7158,46 +7185,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1499</v>
+        <v>1363</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>639</v>
+        <v>594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2137</v>
+        <v>1957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7236,13 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195249</v>
+        <v>177379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7224,13 +7251,13 @@
         <v>493</v>
       </c>
       <c r="I17" s="7">
-        <v>258874</v>
+        <v>258185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7239,16 +7266,16 @@
         <v>770</v>
       </c>
       <c r="N17" s="7">
-        <v>454123</v>
+        <v>435564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,7 +7287,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7275,7 +7302,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7290,7 +7317,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7304,7 +7331,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7313,46 +7340,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>10535</v>
+        <v>10125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>10133</v>
+        <v>9386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>20668</v>
+        <v>19510</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,46 +7391,46 @@
         <v>357</v>
       </c>
       <c r="D20" s="7">
-        <v>266688</v>
+        <v>259511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
       </c>
       <c r="I20" s="7">
-        <v>265489</v>
+        <v>247670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>796</v>
       </c>
       <c r="N20" s="7">
-        <v>532177</v>
+        <v>507182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,7 +7442,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7430,7 +7457,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7445,7 +7472,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7459,7 +7486,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7468,46 +7495,46 @@
         <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>24533</v>
+        <v>24070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>151346</v>
+        <v>241646</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" s="7">
-        <v>175878</v>
+        <v>265716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,46 +7546,46 @@
         <v>576</v>
       </c>
       <c r="D23" s="7">
-        <v>603221</v>
+        <v>600209</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I23" s="7">
-        <v>652857</v>
+        <v>607619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="N23" s="7">
-        <v>1256079</v>
+        <v>1207828</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,7 +7597,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7585,7 +7612,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7600,7 +7627,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7614,55 +7641,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>16286</v>
+        <v>12818</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>17494</v>
+        <v>14415</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>33780</v>
+        <v>27233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,49 +7698,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D26" s="7">
-        <v>843142</v>
+        <v>915902</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>1040</v>
       </c>
       <c r="I26" s="7">
-        <v>850940</v>
+        <v>703316</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="N26" s="7">
-        <v>1694082</v>
+        <v>1619219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,7 +7752,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7740,7 +7767,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7755,7 +7782,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7775,49 +7802,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="7">
-        <v>77678</v>
+        <v>72985</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I28" s="7">
-        <v>219940</v>
+        <v>304229</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N28" s="7">
-        <v>297618</v>
+        <v>377213</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,49 +7853,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D29" s="7">
-        <v>3307550</v>
+        <v>3386832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
-        <v>5205</v>
+        <v>5207</v>
       </c>
       <c r="I29" s="7">
-        <v>3615641</v>
+        <v>3408051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
-        <v>8498</v>
+        <v>8501</v>
       </c>
       <c r="N29" s="7">
-        <v>6923191</v>
+        <v>6794884</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,7 +7907,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7895,7 +7922,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7910,7 +7937,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -7924,7 +7951,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
